--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O253"/>
+  <dimension ref="A1:O232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14527,363 +14527,6 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
     </row>
-    <row r="233">
-      <c r="A233" t="inlineStr"/>
-      <c r="B233" t="inlineStr"/>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
-      <c r="N233" t="inlineStr"/>
-      <c r="O233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr"/>
-      <c r="B234" t="inlineStr"/>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr"/>
-      <c r="N234" t="inlineStr"/>
-      <c r="O234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr"/>
-      <c r="B235" t="inlineStr"/>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="inlineStr"/>
-      <c r="N235" t="inlineStr"/>
-      <c r="O235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr"/>
-      <c r="B236" t="inlineStr"/>
-      <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr"/>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
-      <c r="N236" t="inlineStr"/>
-      <c r="O236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr"/>
-      <c r="B237" t="inlineStr"/>
-      <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr"/>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="inlineStr"/>
-      <c r="N237" t="inlineStr"/>
-      <c r="O237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr"/>
-      <c r="B238" t="inlineStr"/>
-      <c r="C238" t="inlineStr"/>
-      <c r="D238" t="inlineStr"/>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="inlineStr"/>
-      <c r="N238" t="inlineStr"/>
-      <c r="O238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr"/>
-      <c r="B239" t="inlineStr"/>
-      <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr"/>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="inlineStr"/>
-      <c r="N239" t="inlineStr"/>
-      <c r="O239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr"/>
-      <c r="B240" t="inlineStr"/>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr"/>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="inlineStr"/>
-      <c r="N240" t="inlineStr"/>
-      <c r="O240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr"/>
-      <c r="B241" t="inlineStr"/>
-      <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr"/>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="inlineStr"/>
-      <c r="N241" t="inlineStr"/>
-      <c r="O241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr"/>
-      <c r="B242" t="inlineStr"/>
-      <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr"/>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="inlineStr"/>
-      <c r="N242" t="inlineStr"/>
-      <c r="O242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr"/>
-      <c r="B243" t="inlineStr"/>
-      <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr"/>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="inlineStr"/>
-      <c r="N243" t="inlineStr"/>
-      <c r="O243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr"/>
-      <c r="B244" t="inlineStr"/>
-      <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="inlineStr"/>
-      <c r="N244" t="inlineStr"/>
-      <c r="O244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr"/>
-      <c r="B245" t="inlineStr"/>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr"/>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="inlineStr"/>
-      <c r="N245" t="inlineStr"/>
-      <c r="O245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr"/>
-      <c r="B246" t="inlineStr"/>
-      <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr"/>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="inlineStr"/>
-      <c r="N246" t="inlineStr"/>
-      <c r="O246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr"/>
-      <c r="B247" t="inlineStr"/>
-      <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr"/>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="inlineStr"/>
-      <c r="N247" t="inlineStr"/>
-      <c r="O247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr"/>
-      <c r="B248" t="inlineStr"/>
-      <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr"/>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="inlineStr"/>
-      <c r="N248" t="inlineStr"/>
-      <c r="O248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr"/>
-      <c r="B249" t="inlineStr"/>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr"/>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="inlineStr"/>
-      <c r="N249" t="inlineStr"/>
-      <c r="O249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr"/>
-      <c r="B250" t="inlineStr"/>
-      <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr"/>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr"/>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="inlineStr"/>
-      <c r="N250" t="inlineStr"/>
-      <c r="O250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr"/>
-      <c r="B251" t="inlineStr"/>
-      <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr"/>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr"/>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="inlineStr"/>
-      <c r="N251" t="inlineStr"/>
-      <c r="O251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr"/>
-      <c r="B252" t="inlineStr"/>
-      <c r="C252" t="inlineStr"/>
-      <c r="D252" t="inlineStr"/>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="inlineStr"/>
-      <c r="N252" t="inlineStr"/>
-      <c r="O252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr"/>
-      <c r="B253" t="inlineStr"/>
-      <c r="C253" t="inlineStr"/>
-      <c r="D253" t="inlineStr"/>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="inlineStr"/>
-      <c r="N253" t="inlineStr"/>
-      <c r="O253" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O232"/>
+  <dimension ref="A1:R232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,14 +469,20 @@
           <t>Median</t>
         </is>
       </c>
-      <c r="H1" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>0.99</v>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
@@ -501,6 +507,21 @@
       <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ErrorRate</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>AvgMs</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>MedianMs</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>90% Ms</t>
         </is>
       </c>
     </row>
@@ -568,6 +589,17 @@
       <c r="O2" t="n">
         <v>0</v>
       </c>
+      <c r="P2" t="n">
+        <v>720.05</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>628</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>1270.0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -633,6 +665,17 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
+      <c r="P3" t="n">
+        <v>797.24</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>632</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1270.0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -698,6 +741,19 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1110.0</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>939.5</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>1340.0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -763,6 +819,15 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
+      <c r="P5" t="n">
+        <v>691.11</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>636</v>
+      </c>
+      <c r="R5" t="n">
+        <v>886.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -828,6 +893,17 @@
       <c r="O6" t="n">
         <v>0</v>
       </c>
+      <c r="P6" t="n">
+        <v>764.3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>643</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1210.0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -892,6 +968,15 @@
       </c>
       <c r="O7" t="n">
         <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>420.95</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>376.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>648.5</v>
       </c>
     </row>
     <row r="8">
@@ -914,6 +999,9 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -979,6 +1067,21 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1560.0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1370.0</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2830.0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1044,6 +1147,21 @@
       <c r="O10" t="n">
         <v>0</v>
       </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2180.0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1430.0</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>4150.0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1109,6 +1227,15 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
+      <c r="P11" t="n">
+        <v>262</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>259</v>
+      </c>
+      <c r="R11" t="n">
+        <v>338.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1174,6 +1301,19 @@
       <c r="O12" t="n">
         <v>0</v>
       </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1120.0</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>991</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1850.0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1239,6 +1379,21 @@
       <c r="O13" t="n">
         <v>0</v>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>5210.0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>3470.0</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>10130.0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1304,6 +1459,17 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
+      <c r="P14" t="n">
+        <v>718.0599999999999</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>596.5</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>1160.0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1369,6 +1535,15 @@
       <c r="O15" t="n">
         <v>0.037</v>
       </c>
+      <c r="P15" t="n">
+        <v>441.78</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>399</v>
+      </c>
+      <c r="R15" t="n">
+        <v>611.6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1434,6 +1609,17 @@
       <c r="O16" t="n">
         <v>0</v>
       </c>
+      <c r="P16" t="n">
+        <v>732.8099999999999</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>680</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>1150.0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1499,6 +1685,15 @@
       <c r="O17" t="n">
         <v>0</v>
       </c>
+      <c r="P17" t="n">
+        <v>567.15</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>475</v>
+      </c>
+      <c r="R17" t="n">
+        <v>738.9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1564,6 +1759,21 @@
       <c r="O18" t="n">
         <v>0</v>
       </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1190.0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>1220.0</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>1780.0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1629,6 +1839,21 @@
       <c r="O19" t="n">
         <v>0.0769</v>
       </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>3720.0</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>3520.0</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>5080.0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1694,6 +1919,15 @@
       <c r="O20" t="n">
         <v>0</v>
       </c>
+      <c r="P20" t="n">
+        <v>296.33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>298</v>
+      </c>
+      <c r="R20" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1759,6 +1993,21 @@
       <c r="O21" t="n">
         <v>0</v>
       </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>2760.0</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>3570.0</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>3610.0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1824,6 +2073,19 @@
       <c r="O22" t="n">
         <v>0</v>
       </c>
+      <c r="P22" t="n">
+        <v>991.67</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1100.0</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>1160.0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1889,6 +2151,21 @@
       <c r="O23" t="n">
         <v>0</v>
       </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>3330.0</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>1090.0</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>7920.0</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1954,6 +2231,21 @@
       <c r="O24" t="n">
         <v>0</v>
       </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>4750.0</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>3290.0</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>9610.0</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2019,6 +2311,21 @@
       <c r="O25" t="n">
         <v>0</v>
       </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>1850.0</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>1690.0</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>2810.0</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2084,6 +2391,15 @@
       <c r="O26" t="n">
         <v>0</v>
       </c>
+      <c r="P26" t="n">
+        <v>464.89</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>382.5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>719.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2149,6 +2465,15 @@
       <c r="O27" t="n">
         <v>0</v>
       </c>
+      <c r="P27" t="n">
+        <v>601.22</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>518</v>
+      </c>
+      <c r="R27" t="n">
+        <v>871.4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2214,6 +2539,15 @@
       <c r="O28" t="n">
         <v>0</v>
       </c>
+      <c r="P28" t="n">
+        <v>300.77</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>266</v>
+      </c>
+      <c r="R28" t="n">
+        <v>406.4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2278,6 +2612,15 @@
       </c>
       <c r="O29" t="n">
         <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>327.9</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>265</v>
+      </c>
+      <c r="R29" t="n">
+        <v>457.8</v>
       </c>
     </row>
     <row r="30">
@@ -2300,6 +2643,9 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2321,6 +2667,9 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2386,6 +2735,19 @@
       <c r="O32" t="n">
         <v>0</v>
       </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>1090.0</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>983</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>1510.0</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2451,6 +2813,21 @@
       <c r="O33" t="n">
         <v>0</v>
       </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2220.0</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>2130.0</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>2990.0</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2516,6 +2893,15 @@
       <c r="O34" t="n">
         <v>0</v>
       </c>
+      <c r="P34" t="n">
+        <v>592.1799999999999</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>516</v>
+      </c>
+      <c r="R34" t="n">
+        <v>805.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2581,6 +2967,15 @@
       <c r="O35" t="n">
         <v>0</v>
       </c>
+      <c r="P35" t="n">
+        <v>359.4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>312</v>
+      </c>
+      <c r="R35" t="n">
+        <v>499.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2646,6 +3041,15 @@
       <c r="O36" t="n">
         <v>0</v>
       </c>
+      <c r="P36" t="n">
+        <v>443.64</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>405</v>
+      </c>
+      <c r="R36" t="n">
+        <v>678.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2711,6 +3115,21 @@
       <c r="O37" t="n">
         <v>0</v>
       </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>1820.0</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>1490.0</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>3380.0</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2776,6 +3195,17 @@
       <c r="O38" t="n">
         <v>0</v>
       </c>
+      <c r="P38" t="n">
+        <v>980.36</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>671</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>2340.0</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2841,6 +3271,17 @@
       <c r="O39" t="n">
         <v>0</v>
       </c>
+      <c r="P39" t="n">
+        <v>858.1900000000001</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>1790.0</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2906,6 +3347,17 @@
       <c r="O40" t="n">
         <v>0</v>
       </c>
+      <c r="P40" t="n">
+        <v>699.22</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>400.5</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>1940.0</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2971,6 +3423,15 @@
       <c r="O41" t="n">
         <v>0</v>
       </c>
+      <c r="P41" t="n">
+        <v>249.19</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>633.7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3036,6 +3497,15 @@
       <c r="O42" t="n">
         <v>0</v>
       </c>
+      <c r="P42" t="n">
+        <v>292.81</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>589.9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3101,6 +3571,15 @@
       <c r="O43" t="n">
         <v>0</v>
       </c>
+      <c r="P43" t="n">
+        <v>257.06</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>242</v>
+      </c>
+      <c r="R43" t="n">
+        <v>342.9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3166,6 +3645,17 @@
       <c r="O44" t="n">
         <v>0</v>
       </c>
+      <c r="P44" t="n">
+        <v>997.75</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>964</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>1470.0</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3231,6 +3721,15 @@
       <c r="O45" t="n">
         <v>0</v>
       </c>
+      <c r="P45" t="n">
+        <v>216.88</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>160</v>
+      </c>
+      <c r="R45" t="n">
+        <v>470.4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3296,6 +3795,21 @@
       <c r="O46" t="n">
         <v>0.667</v>
       </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>3700.0</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>3750.0</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>5980.0</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3361,6 +3875,15 @@
       <c r="O47" t="n">
         <v>0</v>
       </c>
+      <c r="P47" t="n">
+        <v>677.75</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>621.5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>788</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3425,6 +3948,21 @@
       </c>
       <c r="O48" t="n">
         <v>0</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>2720.0</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>2540.0</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>3930.0</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -3447,6 +3985,9 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3468,6 +4009,9 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3489,6 +4033,9 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3510,6 +4057,9 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3531,6 +4081,9 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3552,6 +4105,9 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3617,6 +4173,15 @@
       <c r="O55" t="n">
         <v>0</v>
       </c>
+      <c r="P55" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>18</v>
+      </c>
+      <c r="R55" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3682,6 +4247,15 @@
       <c r="O56" t="n">
         <v>0</v>
       </c>
+      <c r="P56" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>20</v>
+      </c>
+      <c r="R56" t="n">
+        <v>46.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3747,6 +4321,21 @@
       <c r="O57" t="n">
         <v>0</v>
       </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>2080.0</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>2150.0</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>3360.0</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3812,6 +4401,15 @@
       <c r="O58" t="n">
         <v>0</v>
       </c>
+      <c r="P58" t="n">
+        <v>598.5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>596.5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>743</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3877,6 +4475,15 @@
       <c r="O59" t="n">
         <v>0</v>
       </c>
+      <c r="P59" t="n">
+        <v>312.67</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>435</v>
+      </c>
+      <c r="R59" t="n">
+        <v>437</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3942,6 +4549,15 @@
       <c r="O60" t="n">
         <v>0</v>
       </c>
+      <c r="P60" t="n">
+        <v>217</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>171</v>
+      </c>
+      <c r="R60" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4006,6 +4622,15 @@
       </c>
       <c r="O61" t="n">
         <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>245.67</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>278</v>
+      </c>
+      <c r="R61" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="62">
@@ -4028,6 +4653,9 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4093,6 +4721,15 @@
       <c r="O63" t="n">
         <v>0</v>
       </c>
+      <c r="P63" t="n">
+        <v>236.05</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>311.4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4158,6 +4795,19 @@
       <c r="O64" t="n">
         <v>0.08</v>
       </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>1010.0</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>956</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>1450.0</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4223,6 +4873,17 @@
       <c r="O65" t="n">
         <v>0</v>
       </c>
+      <c r="P65" t="n">
+        <v>938.77</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>861</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>1240.0</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4288,6 +4949,21 @@
       <c r="O66" t="n">
         <v>0</v>
       </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>4510.0</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>3050.0</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>9080.0</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4353,6 +5029,21 @@
       <c r="O67" t="n">
         <v>0</v>
       </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>5320.0</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>1680.0</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>13730.0</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4418,6 +5109,15 @@
       <c r="O68" t="n">
         <v>0</v>
       </c>
+      <c r="P68" t="n">
+        <v>343.53</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>309</v>
+      </c>
+      <c r="R68" t="n">
+        <v>444.8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4483,6 +5183,15 @@
       <c r="O69" t="n">
         <v>0</v>
       </c>
+      <c r="P69" t="n">
+        <v>308.08</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>236</v>
+      </c>
+      <c r="R69" t="n">
+        <v>413</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4548,6 +5257,15 @@
       <c r="O70" t="n">
         <v>0</v>
       </c>
+      <c r="P70" t="n">
+        <v>580.35</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>514</v>
+      </c>
+      <c r="R70" t="n">
+        <v>799.2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4613,6 +5331,21 @@
       <c r="O71" t="n">
         <v>0</v>
       </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>1330.0</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>1220.0</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>1810.0</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4678,6 +5411,17 @@
       <c r="O72" t="n">
         <v>0</v>
       </c>
+      <c r="P72" t="n">
+        <v>555.1799999999999</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>424.25</v>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>1050.0</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4743,6 +5487,15 @@
       <c r="O73" t="n">
         <v>0</v>
       </c>
+      <c r="P73" t="n">
+        <v>696.95</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>612.09</v>
+      </c>
+      <c r="R73" t="n">
+        <v>971.58</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4808,6 +5561,17 @@
       <c r="O74" t="n">
         <v>0</v>
       </c>
+      <c r="P74" t="n">
+        <v>994.77</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>870.97</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>1340.0</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4873,6 +5637,15 @@
       <c r="O75" t="n">
         <v>0</v>
       </c>
+      <c r="P75" t="n">
+        <v>699.3200000000001</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>615</v>
+      </c>
+      <c r="R75" t="n">
+        <v>940</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4938,6 +5711,17 @@
       <c r="O76" t="n">
         <v>0</v>
       </c>
+      <c r="P76" t="n">
+        <v>737.61</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>651</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>1070.0</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5002,6 +5786,17 @@
       </c>
       <c r="O77" t="n">
         <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>614</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>491.5</v>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>1230.0</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -5024,6 +5819,9 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5089,6 +5887,17 @@
       <c r="O79" t="n">
         <v>0</v>
       </c>
+      <c r="P79" t="n">
+        <v>944.41</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>635</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>1820.0</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5154,6 +5963,21 @@
       <c r="O80" t="n">
         <v>0</v>
       </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>1070.0</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>1090.0</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>1500.0</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5219,6 +6043,15 @@
       <c r="O81" t="n">
         <v>0</v>
       </c>
+      <c r="P81" t="n">
+        <v>270.57</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>262</v>
+      </c>
+      <c r="R81" t="n">
+        <v>326.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5284,6 +6117,21 @@
       <c r="O82" t="n">
         <v>0.143</v>
       </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>3620.0</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>3220.0</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>5450.0</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5349,6 +6197,21 @@
       <c r="O83" t="n">
         <v>0</v>
       </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>18770.0</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>19760.0</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>26380.0</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5414,6 +6277,17 @@
       <c r="O84" t="n">
         <v>0</v>
       </c>
+      <c r="P84" t="n">
+        <v>740.4400000000001</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>627</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>1160.0</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5479,6 +6353,17 @@
       <c r="O85" t="n">
         <v>0</v>
       </c>
+      <c r="P85" t="n">
+        <v>497.36</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>380.5</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>1010.0</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5544,6 +6429,15 @@
       <c r="O86" t="n">
         <v>0</v>
       </c>
+      <c r="P86" t="n">
+        <v>606.27</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>579</v>
+      </c>
+      <c r="R86" t="n">
+        <v>795</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5609,6 +6503,17 @@
       <c r="O87" t="n">
         <v>0</v>
       </c>
+      <c r="P87" t="n">
+        <v>601.73</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>481</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>1220.0</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5674,6 +6579,21 @@
       <c r="O88" t="n">
         <v>0</v>
       </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>1050.0</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>1070.0</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>1370.0</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5739,6 +6659,21 @@
       <c r="O89" t="n">
         <v>0</v>
       </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>4019.9999999999995</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>3360.0</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>4700.0</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5800,6 +6735,15 @@
       <c r="O90" t="n">
         <v>0</v>
       </c>
+      <c r="P90" t="n">
+        <v>304</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>304</v>
+      </c>
+      <c r="R90" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5861,6 +6805,15 @@
       <c r="O91" t="n">
         <v>0</v>
       </c>
+      <c r="P91" t="n">
+        <v>356</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>356</v>
+      </c>
+      <c r="R91" t="n">
+        <v>356</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5922,6 +6875,21 @@
       <c r="O92" t="n">
         <v>0</v>
       </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>1150.0</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>1150.0</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>1150.0</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5983,6 +6951,21 @@
       <c r="O93" t="n">
         <v>0</v>
       </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6048,6 +7031,15 @@
       <c r="O94" t="n">
         <v>0</v>
       </c>
+      <c r="P94" t="n">
+        <v>813.5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>813.5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>827</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6113,6 +7105,21 @@
       <c r="O95" t="n">
         <v>0</v>
       </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>1140.0</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>1660.0</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6178,6 +7185,15 @@
       <c r="O96" t="n">
         <v>0</v>
       </c>
+      <c r="P96" t="n">
+        <v>435.31</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>627.2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6243,6 +7259,15 @@
       <c r="O97" t="n">
         <v>0</v>
       </c>
+      <c r="P97" t="n">
+        <v>598.11</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>499.5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>772.3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6308,6 +7333,15 @@
       <c r="O98" t="n">
         <v>0</v>
       </c>
+      <c r="P98" t="n">
+        <v>268</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>327.5</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6373,6 +7407,15 @@
       <c r="O99" t="n">
         <v>0</v>
       </c>
+      <c r="P99" t="n">
+        <v>308.02</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>259</v>
+      </c>
+      <c r="R99" t="n">
+        <v>435.2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6438,6 +7481,21 @@
       <c r="O100" t="n">
         <v>0</v>
       </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>1290.0</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>1110.0</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>1840.0</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6503,6 +7561,21 @@
       <c r="O101" t="n">
         <v>0</v>
       </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>2510.0</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>2490.0</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>3510.0</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6568,6 +7641,21 @@
       <c r="O102" t="n">
         <v>0</v>
       </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>1150.0</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>1100.0</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>1520.0</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6633,6 +7721,21 @@
       <c r="O103" t="n">
         <v>0</v>
       </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>2470.0</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>2280.0</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>3710.0</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6698,6 +7801,17 @@
       <c r="O104" t="n">
         <v>0</v>
       </c>
+      <c r="P104" t="n">
+        <v>691.35</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>587.5</v>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>1130.0</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6763,6 +7877,15 @@
       <c r="O105" t="n">
         <v>0</v>
       </c>
+      <c r="P105" t="n">
+        <v>305.16</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>297</v>
+      </c>
+      <c r="R105" t="n">
+        <v>398</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6828,6 +7951,15 @@
       <c r="O106" t="n">
         <v>0</v>
       </c>
+      <c r="P106" t="n">
+        <v>532</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>471</v>
+      </c>
+      <c r="R106" t="n">
+        <v>857.8</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6893,6 +8025,21 @@
       <c r="O107" t="n">
         <v>0</v>
       </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>2940.0</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>3300.0</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>3930.0</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6958,6 +8105,21 @@
       <c r="O108" t="n">
         <v>0</v>
       </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>2520.0</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>2000.0</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>4170.0</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7023,6 +8185,21 @@
       <c r="O109" t="n">
         <v>0</v>
       </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>1610.0</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>3450.0</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7088,6 +8265,21 @@
       <c r="O110" t="n">
         <v>0</v>
       </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>1400.0</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>1060.0</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>2570.0</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7153,6 +8345,15 @@
       <c r="O111" t="n">
         <v>0</v>
       </c>
+      <c r="P111" t="n">
+        <v>457.69</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>397.5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>598.1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7218,6 +8419,15 @@
       <c r="O112" t="n">
         <v>0</v>
       </c>
+      <c r="P112" t="n">
+        <v>198.69</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>203</v>
+      </c>
+      <c r="R112" t="n">
+        <v>294.6</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7283,6 +8493,15 @@
       <c r="O113" t="n">
         <v>0</v>
       </c>
+      <c r="P113" t="n">
+        <v>229.13</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>317.4</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7348,6 +8567,15 @@
       <c r="O114" t="n">
         <v>0</v>
       </c>
+      <c r="P114" t="n">
+        <v>649.67</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>666</v>
+      </c>
+      <c r="R114" t="n">
+        <v>728</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7413,6 +8641,17 @@
       <c r="O115" t="n">
         <v>0</v>
       </c>
+      <c r="P115" t="n">
+        <v>720</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>162</v>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>3120.0</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7478,6 +8717,21 @@
       <c r="O116" t="n">
         <v>0.143</v>
       </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>2160.0</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>1980.0</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>3070.0</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7543,6 +8797,17 @@
       <c r="O117" t="n">
         <v>0</v>
       </c>
+      <c r="P117" t="n">
+        <v>812.22</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>750.5</v>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>1030.0</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7608,6 +8873,21 @@
       <c r="O118" t="n">
         <v>0</v>
       </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>2630.0</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>2590.0</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>3130.0</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7673,6 +8953,15 @@
       <c r="O119" t="n">
         <v>0</v>
       </c>
+      <c r="P119" t="n">
+        <v>271.2</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>265</v>
+      </c>
+      <c r="R119" t="n">
+        <v>319</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7738,6 +9027,15 @@
       <c r="O120" t="n">
         <v>0</v>
       </c>
+      <c r="P120" t="n">
+        <v>476.6</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>470</v>
+      </c>
+      <c r="R120" t="n">
+        <v>617</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7803,6 +9101,21 @@
       <c r="O121" t="n">
         <v>0</v>
       </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>2700.0</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>3270.0</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>3410.0</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7868,6 +9181,15 @@
       <c r="O122" t="n">
         <v>0</v>
       </c>
+      <c r="P122" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="R122" t="n">
+        <v>514.2</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7933,6 +9255,15 @@
       <c r="O123" t="n">
         <v>0</v>
       </c>
+      <c r="P123" t="n">
+        <v>276.17</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="R123" t="n">
+        <v>345.3</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7998,6 +9329,21 @@
       <c r="O124" t="n">
         <v>0</v>
       </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>1920.0</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>1900.0</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>3090.0</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8063,6 +9409,19 @@
       <c r="O125" t="n">
         <v>0</v>
       </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>1240.0</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>483</v>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>3100.0</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8128,6 +9487,17 @@
       <c r="O126" t="n">
         <v>0</v>
       </c>
+      <c r="P126" t="n">
+        <v>669.4</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>463</v>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>1630.0</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8193,6 +9563,15 @@
       <c r="O127" t="n">
         <v>0.4</v>
       </c>
+      <c r="P127" t="n">
+        <v>359</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>319</v>
+      </c>
+      <c r="R127" t="n">
+        <v>784</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8258,6 +9637,15 @@
       <c r="O128" t="n">
         <v>0</v>
       </c>
+      <c r="P128" t="n">
+        <v>303</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>303</v>
+      </c>
+      <c r="R128" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8323,6 +9711,15 @@
       <c r="O129" t="n">
         <v>0</v>
       </c>
+      <c r="P129" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="R129" t="n">
+        <v>434</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8388,6 +9785,15 @@
       <c r="O130" t="n">
         <v>0</v>
       </c>
+      <c r="P130" t="n">
+        <v>225.65</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="R130" t="n">
+        <v>316.2</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8453,6 +9859,19 @@
       <c r="O131" t="n">
         <v>0.0296</v>
       </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>1070.0</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>961</v>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>1440.0</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8518,6 +9937,17 @@
       <c r="O132" t="n">
         <v>0</v>
       </c>
+      <c r="P132" t="n">
+        <v>935.95</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>849.5</v>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>1240.0</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8583,6 +10013,19 @@
       <c r="O133" t="n">
         <v>0</v>
       </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>1330.0</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>724</v>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>3200.0</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8648,6 +10091,19 @@
       <c r="O134" t="n">
         <v>0</v>
       </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>1300.0</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>718</v>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>3140.0</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8713,6 +10169,15 @@
       <c r="O135" t="n">
         <v>0</v>
       </c>
+      <c r="P135" t="n">
+        <v>358</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="R135" t="n">
+        <v>451.6</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8778,6 +10243,15 @@
       <c r="O136" t="n">
         <v>0</v>
       </c>
+      <c r="P136" t="n">
+        <v>257</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>246</v>
+      </c>
+      <c r="R136" t="n">
+        <v>341.4</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8842,6 +10316,15 @@
       </c>
       <c r="O137" t="n">
         <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>348.21</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="R137" t="n">
+        <v>584.4</v>
       </c>
     </row>
     <row r="138">
@@ -8864,6 +10347,9 @@
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8885,6 +10371,9 @@
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8906,6 +10395,9 @@
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8927,6 +10419,9 @@
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8992,6 +10487,15 @@
       <c r="O142" t="n">
         <v>0</v>
       </c>
+      <c r="P142" t="n">
+        <v>308.58</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>290</v>
+      </c>
+      <c r="R142" t="n">
+        <v>390.8</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9057,6 +10561,15 @@
       <c r="O143" t="n">
         <v>0</v>
       </c>
+      <c r="P143" t="n">
+        <v>75.84</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>40</v>
+      </c>
+      <c r="R143" t="n">
+        <v>137.8</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9122,6 +10635,15 @@
       <c r="O144" t="n">
         <v>0</v>
       </c>
+      <c r="P144" t="n">
+        <v>314.26</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>261</v>
+      </c>
+      <c r="R144" t="n">
+        <v>593.6</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9187,6 +10709,17 @@
       <c r="O145" t="n">
         <v>0</v>
       </c>
+      <c r="P145" t="n">
+        <v>825.95</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>722</v>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>1260.0</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9252,6 +10785,15 @@
       <c r="O146" t="n">
         <v>0</v>
       </c>
+      <c r="P146" t="n">
+        <v>400.75</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>398.5</v>
+      </c>
+      <c r="R146" t="n">
+        <v>516</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9317,6 +10859,15 @@
       <c r="O147" t="n">
         <v>0</v>
       </c>
+      <c r="P147" t="n">
+        <v>174</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>171</v>
+      </c>
+      <c r="R147" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9381,6 +10932,15 @@
       </c>
       <c r="O148" t="n">
         <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>343.6</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>264</v>
+      </c>
+      <c r="R148" t="n">
+        <v>690</v>
       </c>
     </row>
     <row r="149">
@@ -9403,6 +10963,9 @@
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9424,6 +10987,9 @@
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9445,6 +11011,9 @@
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9466,6 +11035,9 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9531,6 +11103,17 @@
       <c r="O153" t="n">
         <v>0</v>
       </c>
+      <c r="P153" t="n">
+        <v>904.38</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>767</v>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>1380.0</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9596,6 +11179,17 @@
       <c r="O154" t="n">
         <v>0</v>
       </c>
+      <c r="P154" t="n">
+        <v>971.78</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>875.5</v>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>1320.0</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9661,6 +11255,15 @@
       <c r="O155" t="n">
         <v>0</v>
       </c>
+      <c r="P155" t="n">
+        <v>562.15</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>476</v>
+      </c>
+      <c r="R155" t="n">
+        <v>768</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9726,6 +11329,15 @@
       <c r="O156" t="n">
         <v>0</v>
       </c>
+      <c r="P156" t="n">
+        <v>493.4</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>386.22</v>
+      </c>
+      <c r="R156" t="n">
+        <v>904.2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9791,6 +11403,17 @@
       <c r="O157" t="n">
         <v>0</v>
       </c>
+      <c r="P157" t="n">
+        <v>970.37</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>858.21</v>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>1320.0</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9856,6 +11479,15 @@
       <c r="O158" t="n">
         <v>0</v>
       </c>
+      <c r="P158" t="n">
+        <v>704.6799999999999</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>606.0700000000001</v>
+      </c>
+      <c r="R158" t="n">
+        <v>957</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9921,6 +11553,17 @@
       <c r="O159" t="n">
         <v>0</v>
       </c>
+      <c r="P159" t="n">
+        <v>746.79</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>683</v>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>1090.0</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9986,6 +11629,17 @@
       <c r="O160" t="n">
         <v>0</v>
       </c>
+      <c r="P160" t="n">
+        <v>635.3200000000001</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>571</v>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -10051,6 +11705,21 @@
       <c r="O161" t="n">
         <v>0.174</v>
       </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>2190.0</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>2340.0</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>3060.0</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10116,6 +11785,17 @@
       <c r="O162" t="n">
         <v>0</v>
       </c>
+      <c r="P162" t="n">
+        <v>931.0700000000001</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>794.5</v>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>1360.0</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -10181,6 +11861,15 @@
       <c r="O163" t="n">
         <v>0</v>
       </c>
+      <c r="P163" t="n">
+        <v>407.67</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>340</v>
+      </c>
+      <c r="R163" t="n">
+        <v>663.7</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10246,6 +11935,21 @@
       <c r="O164" t="n">
         <v>0</v>
       </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>1270.0</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>1150.0</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>1970.0</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10311,6 +12015,21 @@
       <c r="O165" t="n">
         <v>0</v>
       </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>13200.0</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>12320.0</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>18890.0</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10376,6 +12095,15 @@
       <c r="O166" t="n">
         <v>0</v>
       </c>
+      <c r="P166" t="n">
+        <v>161.23</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="R166" t="n">
+        <v>217.2</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10441,6 +12169,15 @@
       <c r="O167" t="n">
         <v>0</v>
       </c>
+      <c r="P167" t="n">
+        <v>342.46</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>363</v>
+      </c>
+      <c r="R167" t="n">
+        <v>450.6</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10506,6 +12243,21 @@
       <c r="O168" t="n">
         <v>0</v>
       </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>1830.0</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>1470.0</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>3330.0</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10571,6 +12323,17 @@
       <c r="O169" t="n">
         <v>0</v>
       </c>
+      <c r="P169" t="n">
+        <v>956.54</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>933</v>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>1420.0</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10636,6 +12399,15 @@
       <c r="O170" t="n">
         <v>0</v>
       </c>
+      <c r="P170" t="n">
+        <v>606</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>536</v>
+      </c>
+      <c r="R170" t="n">
+        <v>840.4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10701,6 +12473,21 @@
       <c r="O171" t="n">
         <v>1</v>
       </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>1450.0</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>1360.0</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>1760.0</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10766,6 +12553,19 @@
       <c r="O172" t="n">
         <v>0</v>
       </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>1080.0</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>981</v>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>1620.0</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10831,6 +12631,15 @@
       <c r="O173" t="n">
         <v>0</v>
       </c>
+      <c r="P173" t="n">
+        <v>553.6</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>495.5</v>
+      </c>
+      <c r="R173" t="n">
+        <v>744.5</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10896,6 +12705,15 @@
       <c r="O174" t="n">
         <v>0</v>
       </c>
+      <c r="P174" t="n">
+        <v>322.55</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>263</v>
+      </c>
+      <c r="R174" t="n">
+        <v>508.3</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10961,6 +12779,21 @@
       <c r="O175" t="n">
         <v>0</v>
       </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>1170.0</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>1040.0</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>1700.0</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -11026,6 +12859,21 @@
       <c r="O176" t="n">
         <v>0</v>
       </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>2430.0</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>2200.0</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>3510.0</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -11091,6 +12939,17 @@
       <c r="O177" t="n">
         <v>0</v>
       </c>
+      <c r="P177" t="n">
+        <v>881.67</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>547</v>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>1730.0</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -11156,6 +13015,15 @@
       <c r="O178" t="n">
         <v>0</v>
       </c>
+      <c r="P178" t="n">
+        <v>277</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>282</v>
+      </c>
+      <c r="R178" t="n">
+        <v>321</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -11221,6 +13089,15 @@
       <c r="O179" t="n">
         <v>0</v>
       </c>
+      <c r="P179" t="n">
+        <v>559.6</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>526</v>
+      </c>
+      <c r="R179" t="n">
+        <v>733</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -11286,6 +13163,15 @@
       <c r="O180" t="n">
         <v>0</v>
       </c>
+      <c r="P180" t="n">
+        <v>684</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>662</v>
+      </c>
+      <c r="R180" t="n">
+        <v>862</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -11351,6 +13237,15 @@
       <c r="O181" t="n">
         <v>0</v>
       </c>
+      <c r="P181" t="n">
+        <v>643</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>678</v>
+      </c>
+      <c r="R181" t="n">
+        <v>986</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11416,6 +13311,15 @@
       <c r="O182" t="n">
         <v>0</v>
       </c>
+      <c r="P182" t="n">
+        <v>245.71</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>197</v>
+      </c>
+      <c r="R182" t="n">
+        <v>337.6</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -11481,6 +13385,15 @@
       <c r="O183" t="n">
         <v>0</v>
       </c>
+      <c r="P183" t="n">
+        <v>194.55</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>181</v>
+      </c>
+      <c r="R183" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11546,6 +13459,17 @@
       <c r="O184" t="n">
         <v>0</v>
       </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>1250.0</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="R184" t="n">
+        <v>404.4</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -11611,6 +13535,15 @@
       <c r="O185" t="n">
         <v>0</v>
       </c>
+      <c r="P185" t="n">
+        <v>750.33</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>663</v>
+      </c>
+      <c r="R185" t="n">
+        <v>928</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11676,6 +13609,15 @@
       <c r="O186" t="n">
         <v>0</v>
       </c>
+      <c r="P186" t="n">
+        <v>187.67</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>192</v>
+      </c>
+      <c r="R186" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -11741,6 +13683,21 @@
       <c r="O187" t="n">
         <v>1</v>
       </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>4460.0</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>4460.0</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>4640.0</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -11806,6 +13763,15 @@
       <c r="O188" t="n">
         <v>0</v>
       </c>
+      <c r="P188" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>209</v>
+      </c>
+      <c r="R188" t="n">
+        <v>356</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11871,6 +13837,15 @@
       <c r="O189" t="n">
         <v>0</v>
       </c>
+      <c r="P189" t="n">
+        <v>526.83</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>530.5</v>
+      </c>
+      <c r="R189" t="n">
+        <v>629.2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -11936,6 +13911,19 @@
       <c r="O190" t="n">
         <v>0</v>
       </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>1650.0</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>958</v>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>3220.0</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -12001,6 +13989,15 @@
       <c r="O191" t="n">
         <v>0</v>
       </c>
+      <c r="P191" t="n">
+        <v>308.4</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>297</v>
+      </c>
+      <c r="R191" t="n">
+        <v>374</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -12066,6 +14063,15 @@
       <c r="O192" t="n">
         <v>0</v>
       </c>
+      <c r="P192" t="n">
+        <v>354.4</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>377</v>
+      </c>
+      <c r="R192" t="n">
+        <v>441</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -12131,6 +14137,21 @@
       <c r="O193" t="n">
         <v>0</v>
       </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>1380.0</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>1340.0</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>1880.0</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -12196,6 +14217,15 @@
       <c r="O194" t="n">
         <v>0</v>
       </c>
+      <c r="P194" t="n">
+        <v>214.02</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>183</v>
+      </c>
+      <c r="R194" t="n">
+        <v>331.2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -12261,6 +14291,19 @@
       <c r="O195" t="n">
         <v>0.024</v>
       </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>967</v>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>1300.0</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -12326,6 +14369,17 @@
       <c r="O196" t="n">
         <v>0</v>
       </c>
+      <c r="P196" t="n">
+        <v>986.15</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>884</v>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>1400.0</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -12391,6 +14445,15 @@
       <c r="O197" t="n">
         <v>0</v>
       </c>
+      <c r="P197" t="n">
+        <v>588.33</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>522.25</v>
+      </c>
+      <c r="R197" t="n">
+        <v>888</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -12456,6 +14519,15 @@
       <c r="O198" t="n">
         <v>0</v>
       </c>
+      <c r="P198" t="n">
+        <v>618.5700000000001</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>546</v>
+      </c>
+      <c r="R198" t="n">
+        <v>907.2</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -12521,6 +14593,15 @@
       <c r="O199" t="n">
         <v>0</v>
       </c>
+      <c r="P199" t="n">
+        <v>291.84</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>283</v>
+      </c>
+      <c r="R199" t="n">
+        <v>372.8</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12586,6 +14667,15 @@
       <c r="O200" t="n">
         <v>0</v>
       </c>
+      <c r="P200" t="n">
+        <v>288.66</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>248</v>
+      </c>
+      <c r="R200" t="n">
+        <v>349.2</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12651,6 +14741,15 @@
       <c r="O201" t="n">
         <v>0</v>
       </c>
+      <c r="P201" t="n">
+        <v>378.7</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>335</v>
+      </c>
+      <c r="R201" t="n">
+        <v>692.5</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -12716,6 +14815,15 @@
       <c r="O202" t="n">
         <v>0</v>
       </c>
+      <c r="P202" t="n">
+        <v>704.5</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>696.5</v>
+      </c>
+      <c r="R202" t="n">
+        <v>863</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -12781,6 +14889,21 @@
       <c r="O203" t="n">
         <v>0</v>
       </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>13730.0</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>13900.0</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>15800.0</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -12846,6 +14969,15 @@
       <c r="O204" t="n">
         <v>0</v>
       </c>
+      <c r="P204" t="n">
+        <v>225.62</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="R204" t="n">
+        <v>339.5</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -12911,6 +15043,15 @@
       <c r="O205" t="n">
         <v>0</v>
       </c>
+      <c r="P205" t="n">
+        <v>68.04000000000001</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>44</v>
+      </c>
+      <c r="R205" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -12976,6 +15117,15 @@
       <c r="O206" t="n">
         <v>0</v>
       </c>
+      <c r="P206" t="n">
+        <v>314.61</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>304</v>
+      </c>
+      <c r="R206" t="n">
+        <v>429.2</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -13041,6 +15191,17 @@
       <c r="O207" t="n">
         <v>0</v>
       </c>
+      <c r="P207" t="n">
+        <v>719.4299999999999</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>797</v>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>1110.0</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -13102,6 +15263,15 @@
       <c r="O208" t="n">
         <v>0</v>
       </c>
+      <c r="P208" t="n">
+        <v>419</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>419</v>
+      </c>
+      <c r="R208" t="n">
+        <v>419</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -13163,6 +15333,15 @@
       <c r="O209" t="n">
         <v>0</v>
       </c>
+      <c r="P209" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>196</v>
+      </c>
+      <c r="R209" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -13228,6 +15407,17 @@
       <c r="O210" t="n">
         <v>0</v>
       </c>
+      <c r="P210" t="n">
+        <v>777.5</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>777.5</v>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>1100.0</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -13293,6 +15483,15 @@
       <c r="O211" t="n">
         <v>0</v>
       </c>
+      <c r="P211" t="n">
+        <v>650.75</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>672</v>
+      </c>
+      <c r="R211" t="n">
+        <v>744</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -13358,6 +15557,21 @@
       <c r="O212" t="n">
         <v>0</v>
       </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>14820.0</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>14410.0</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>15800.0</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -13423,6 +15637,17 @@
       <c r="O213" t="n">
         <v>0</v>
       </c>
+      <c r="P213" t="n">
+        <v>895.75</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>812</v>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>1160.0</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -13488,6 +15713,17 @@
       <c r="O214" t="n">
         <v>0</v>
       </c>
+      <c r="P214" t="n">
+        <v>906.54</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>806.5</v>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>1210.0</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -13553,6 +15789,15 @@
       <c r="O215" t="n">
         <v>0</v>
       </c>
+      <c r="P215" t="n">
+        <v>584.0599999999999</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>501.5</v>
+      </c>
+      <c r="R215" t="n">
+        <v>826.2</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -13618,6 +15863,15 @@
       <c r="O216" t="n">
         <v>0</v>
       </c>
+      <c r="P216" t="n">
+        <v>224.39</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>184</v>
+      </c>
+      <c r="R216" t="n">
+        <v>302.6</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -13683,6 +15937,15 @@
       <c r="O217" t="n">
         <v>0</v>
       </c>
+      <c r="P217" t="n">
+        <v>402.98</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>353</v>
+      </c>
+      <c r="R217" t="n">
+        <v>559.6</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -13748,6 +16011,17 @@
       <c r="O218" t="n">
         <v>0</v>
       </c>
+      <c r="P218" t="n">
+        <v>881.33</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>833</v>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>1050.0</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -13812,6 +16086,21 @@
       </c>
       <c r="O219" t="n">
         <v>0</v>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>13970.0</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>13160.0</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>16940.0</t>
+        </is>
       </c>
     </row>
     <row r="220">
@@ -13834,6 +16123,9 @@
       <c r="M220" t="inlineStr"/>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
+      <c r="R220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -13855,6 +16147,9 @@
       <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
+      <c r="R221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -13920,6 +16215,15 @@
       <c r="O222" t="n">
         <v>0</v>
       </c>
+      <c r="P222" t="n">
+        <v>164.09</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>154</v>
+      </c>
+      <c r="R222" t="n">
+        <v>221.8</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -13985,6 +16289,15 @@
       <c r="O223" t="n">
         <v>0</v>
       </c>
+      <c r="P223" t="n">
+        <v>237.23</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>212</v>
+      </c>
+      <c r="R223" t="n">
+        <v>364.6</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -14050,6 +16363,21 @@
       <c r="O224" t="n">
         <v>0</v>
       </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>9820.0</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>9560.0</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>10940.0</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -14115,6 +16443,21 @@
       <c r="O225" t="n">
         <v>0</v>
       </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>10040.0</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>13370.0</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>17690.0</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -14180,6 +16523,21 @@
       <c r="O226" t="n">
         <v>0</v>
       </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>1810.0</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>1670.0</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>3010.0</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -14245,6 +16603,21 @@
       <c r="O227" t="n">
         <v>0</v>
       </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>6580.0</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>2180.0</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>16379.999999999998</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -14310,6 +16683,21 @@
       <c r="O228" t="n">
         <v>0</v>
       </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>10050.0</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>13630.0</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>17490.0</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -14375,6 +16763,15 @@
       <c r="O229" t="n">
         <v>0</v>
       </c>
+      <c r="P229" t="n">
+        <v>380.55</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>312</v>
+      </c>
+      <c r="R229" t="n">
+        <v>634</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -14440,6 +16837,21 @@
       <c r="O230" t="n">
         <v>0</v>
       </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>24600.0</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>22580.0</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>40810.0</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -14504,6 +16916,15 @@
       </c>
       <c r="O231" t="n">
         <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>535.9400000000001</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>499</v>
+      </c>
+      <c r="R231" t="n">
+        <v>705.8</v>
       </c>
     </row>
     <row r="232">
@@ -14526,6 +16947,9 @@
       <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
+      <c r="R232" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
